--- a/Docs/Scenario/scene_part_2_2_gangnam_multilang.xlsx
+++ b/Docs/Scenario/scene_part_2_2_gangnam_multilang.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c450299a09de0957/문서/GitHub/feminist-sim/Docs/Scenario/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_CCCA3CD197D9AECF8A160BF34BE40DF570C621D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D588E42D-F04D-4F7F-BABE-DA4A630DC722}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -220,12 +226,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -233,8 +239,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,17 +293,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +349,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -362,6 +383,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,9 +418,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,14 +594,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="BD6" sqref="I1:BD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="101.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -636,7 +675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -656,7 +695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -676,7 +715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -696,7 +735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -716,7 +755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -736,7 +775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -756,7 +795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -776,7 +815,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -796,7 +835,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -816,7 +855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -836,7 +875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -856,7 +895,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -882,7 +921,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -906,6 +945,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/Scenario/scene_part_2_2_gangnam_multilang.xlsx
+++ b/Docs/Scenario/scene_part_2_2_gangnam_multilang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c450299a09de0957/문서/GitHub/feminist-sim/Docs/Scenario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\문서\GitHub\feminist-sim\Docs\Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_CCCA3CD197D9AECF8A160BF34BE40DF570C621D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D588E42D-F04D-4F7F-BABE-DA4A630DC722}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A46FEB6-1802-4D33-A878-7590B1D6FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="BD6" sqref="I1:BD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
